--- a/AutoWindPowerReportHeNanNanYang/bin/Debug/net8.0-windows/河南oms81.xlsx
+++ b/AutoWindPowerReportHeNanNanYang/bin/Debug/net8.0-windows/河南oms81.xlsx
@@ -481,21 +481,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.6516</t>
+          <t>84.5801</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>64.2290</t>
+          <t>79.7830</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>533665.8745</v>
+        <v>1818.256666666667</v>
       </c>
     </row>
     <row r="3">
@@ -514,21 +514,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.8178</t>
+          <t>23.3153</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38.0820</t>
+          <t>22.6518</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>382961.81575</v>
+        <v>12858.08233333333</v>
       </c>
     </row>
     <row r="4">
@@ -547,21 +547,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.3526</t>
+          <t>58.2000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63.8880</t>
+          <t>57.3760</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>426661.6130833333</v>
+        <v>3418.228583333334</v>
       </c>
     </row>
     <row r="5">
@@ -580,21 +580,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31.2089</t>
+          <t>80.1828</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30.9021</t>
+          <t>77.5526</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>546568.65925</v>
+        <v>3047.429666666667</v>
       </c>
     </row>
     <row r="6">
@@ -613,21 +613,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.2495</t>
+          <t>99.9855</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>86.4424</t>
+          <t>97.4072</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>338911.72125</v>
+        <v>360.5420833333333</v>
       </c>
     </row>
     <row r="7">
@@ -646,21 +646,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.5937</t>
+          <t>171.7410</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>81.4000</t>
+          <t>166.1000</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>404547.8145833333</v>
+        <v>8088.646583333334</v>
       </c>
     </row>
     <row r="8">
@@ -679,17 +679,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-1738.1423</t>
+          <t>152.1958</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60.6804</t>
+          <t>147.7608</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -712,21 +712,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-74.3590</t>
+          <t>113.3708</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41.7974</t>
+          <t>108.7134</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1271706.3905</v>
+        <v>8108.6385</v>
       </c>
     </row>
     <row r="10">
@@ -745,17 +745,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67.8102</t>
+          <t>113.6052</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68.0196</t>
+          <t>112.1670</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -778,21 +778,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.8624</t>
+          <t>22.9249</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22.7436</t>
+          <t>22.7865</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>250220.18025</v>
+        <v>980.9864166666665</v>
       </c>
     </row>
     <row r="12">
@@ -811,21 +811,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20.5455</t>
+          <t>54.1562</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>20.1386</t>
+          <t>52.9181</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>318476.6881666666</v>
+        <v>11755.97041666667</v>
       </c>
     </row>
     <row r="13">
@@ -844,21 +844,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.2495</t>
+          <t>99.9855</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>86.4424</t>
+          <t>97.4072</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>338911.72125</v>
+        <v>360.5420833333333</v>
       </c>
     </row>
   </sheetData>

--- a/AutoWindPowerReportHeNanNanYang/bin/Debug/net8.0-windows/河南oms81.xlsx
+++ b/AutoWindPowerReportHeNanNanYang/bin/Debug/net8.0-windows/河南oms81.xlsx
@@ -481,21 +481,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.5801</t>
+          <t>139.6924</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79.7830</t>
+          <t>138.7320</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1818.256666666667</v>
+        <v>21462.74633333333</v>
       </c>
     </row>
     <row r="3">
@@ -514,21 +514,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.3153</t>
+          <t>46.5089</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>22.6518</t>
+          <t>46.0790</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>12858.08233333333</v>
+        <v>2647.950249999999</v>
       </c>
     </row>
     <row r="4">
@@ -547,21 +547,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58.2000</t>
+          <t>110.1697</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>57.3760</t>
+          <t>108.0640</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3418.228583333334</v>
+        <v>24135.44691666666</v>
       </c>
     </row>
     <row r="5">
@@ -580,21 +580,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.1828</t>
+          <t>81.3484</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.5526</t>
+          <t>81.5390</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3047.429666666667</v>
+        <v>7677.294166666667</v>
       </c>
     </row>
     <row r="6">
@@ -613,21 +613,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.9855</t>
+          <t>126.0830</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97.4072</t>
+          <t>124.3792</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>360.5420833333333</v>
+        <v>6046.6935</v>
       </c>
     </row>
     <row r="7">
@@ -646,21 +646,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>171.7410</t>
+          <t>178.5572</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>166.1000</t>
+          <t>174.9000</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8088.646583333334</v>
+        <v>92373.57249999999</v>
       </c>
     </row>
     <row r="8">
@@ -679,17 +679,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>152.1958</t>
+          <t>133.6893</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>147.7608</t>
+          <t>133.3306</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -712,21 +712,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>113.3708</t>
+          <t>89.2829</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>108.7134</t>
+          <t>88.1654</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8108.6385</v>
+        <v>1042.634583333333</v>
       </c>
     </row>
     <row r="10">
@@ -745,17 +745,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>113.6052</t>
+          <t>115.6813</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>112.1670</t>
+          <t>114.6552</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -778,21 +778,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.9249</t>
+          <t>37.2909</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22.7865</t>
+          <t>36.8445</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>980.9864166666665</v>
+        <v>3052.04525</v>
       </c>
     </row>
     <row r="12">
@@ -811,21 +811,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>54.1562</t>
+          <t>61.5880</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52.9181</t>
+          <t>61.2256</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>11755.97041666667</v>
+        <v>31353.04983333333</v>
       </c>
     </row>
     <row r="13">
@@ -844,21 +844,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>99.9855</t>
+          <t>126.0830</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>97.4072</t>
+          <t>124.3792</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>360.5420833333333</v>
+        <v>6046.6935</v>
       </c>
     </row>
   </sheetData>
